--- a/dashboards_I.xlsx
+++ b/dashboards_I.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Youtube/04. DashBoard Especialista/01. Dashboard 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44BC40C4-BABE-454A-9CDD-B13D8B786BED}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE744A1-67EB-4E80-A28F-5D3ABC05F4B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Dados" sheetId="2" r:id="rId1"/>
     <sheet name="Dados Reservas" sheetId="3" r:id="rId2"/>
     <sheet name="Layout do Dashboard" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="Auxiliar" sheetId="10" r:id="rId4"/>
+    <sheet name="Dinamica" sheetId="10" r:id="rId4"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -30,6 +30,9 @@
     <definedName name="taxaComissao2">'[3]Nomes de Intervalos'!$G$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -164,11 +167,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +317,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3249,6 +3372,2933 @@
 </externalLink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lucas Gilio Ducci" refreshedDate="45198.806474189812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="410" xr:uid="{FB3C9785-492E-4A1A-B532-605D17392831}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Reservas"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-01T00:00:00" maxDate="2018-12-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="Tipo Reserva" numFmtId="1">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Valor Total" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1345" maxValue="9845"/>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="44">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="410">
+  <r>
+    <d v="2018-01-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1345"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1380"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1415"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3475"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1450"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1485"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2400"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1520"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1555"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1590"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1625"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1660"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1695"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1800"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5798"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1870"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-17T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2345"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1975"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2045"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2150"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2220"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2325"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-01-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-01-31T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2395"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-03T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2500"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-05T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2570"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-08T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2675"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-10T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2745"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-13T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2850"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2920"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-18T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3025"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-20T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3095"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-23T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3200"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2345"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-25T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3270"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-02-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-02-28T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3375"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-01T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1345"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1380"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1415"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1450"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="4983"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9845"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="7895"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1485"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-06T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1520"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1555"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1590"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-09T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1625"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1660"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1695"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9567"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8765"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9456"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="4567"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-14T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1800"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-16T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1870"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-19T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1975"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-21T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2045"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-24T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2150"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-26T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2220"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-29T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2325"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-03-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-03-31T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2395"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2500"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2570"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8967"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="7896"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="6543"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8765"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9456"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2675"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2745"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2850"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2920"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3025"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3095"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3456"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="4567"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="5345"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3456"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3200"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3270"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3375"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-04-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3410"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-04-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3445"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1800"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1870"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1975"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2045"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2150"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2220"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2325"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2395"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2500"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2570"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2675"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-05-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2745"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-05-31T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2850"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-03T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2920"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-05T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3025"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-08T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3095"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-10T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3200"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-13T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3270"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3375"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-18T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3410"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3445"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-20T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3480"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3515"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3550"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-23T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3585"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3620"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-25T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3655"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3690"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3725"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-28T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3760"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-06-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3795"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-06-30T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3830"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1345"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1380"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1415"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3475"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1450"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1485"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2400"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1520"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1555"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1590"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1625"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1660"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1695"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1800"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5798"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1870"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-17T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2345"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1975"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2045"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2150"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2220"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2325"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-07-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-07-31T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2395"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-03T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2500"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-05T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2570"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-08T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2675"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-10T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2745"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-13T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2850"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2920"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-18T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3025"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-20T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3095"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-23T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3200"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2345"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-25T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3270"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-08-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-08-28T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3375"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-01T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1345"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1380"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1415"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1450"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="4983"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9845"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-04T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="7895"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1485"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-06T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1520"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1555"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1590"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-09T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1625"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1660"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1695"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9567"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="5678"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8765"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9456"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="4567"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-14T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1800"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-16T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1870"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-19T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1975"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-21T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2045"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-24T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2150"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-26T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2220"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-29T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2325"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-09-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-09-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2395"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2500"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2570"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8967"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="7896"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="6543"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="8765"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="9456"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2675"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2745"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2850"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2920"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3025"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3095"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3456"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="4567"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="5345"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3456"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3200"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3270"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3375"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-10-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3410"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-10-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3445"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1730"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1765"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-03T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1800"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1835"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-05T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="1870"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1905"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1940"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-08T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="1975"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2010"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-10T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2045"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2080"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2115"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-13T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2150"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2185"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-15T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2220"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2255"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2290"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-18T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2325"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2360"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-20T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2395"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2430"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2465"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-23T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2500"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2535"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-25T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2570"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2605"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2640"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-28T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2675"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2710"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-11-30T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2745"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-11-30T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2780"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-01T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2815"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-02T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2850"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-03T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2885"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-04T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="2920"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-05T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2955"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-06T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="2990"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-07T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3025"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-08T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3060"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-09T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3095"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-10T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3130"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-11T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3165"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-12T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3200"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-13T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3235"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-14T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3270"/>
+    <s v="Letícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-15T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3305"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-16T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3340"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-17T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3375"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-18T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3410"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-19T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3445"/>
+    <s v="Priscila"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-20T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3480"/>
+    <s v="Carlos"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-21T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3515"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-22T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3550"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-23T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3585"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-24T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3620"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-25T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3655"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-26T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3690"/>
+    <s v="Priscila"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-27T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3725"/>
+    <s v="Carlos"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-28T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3760"/>
+    <s v="Letícia"/>
+    <s v="Finalizada"/>
+  </r>
+  <r>
+    <d v="2018-12-29T00:00:00"/>
+    <s v="Serviço"/>
+    <n v="3795"/>
+    <s v="Patrícia"/>
+    <s v="Cotação"/>
+  </r>
+  <r>
+    <d v="2018-12-30T00:00:00"/>
+    <s v="Hospedagem"/>
+    <n v="3830"/>
+    <s v="Patrícia"/>
+    <s v="Finalizada"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7203CBA3-2462-4655-BF37-85939DE5172B}" name="Reservas" displayName="Reservas" ref="A2:E412">
   <autoFilter ref="A2:E412" xr:uid="{3C62A2CF-B0C6-4349-86CC-B9116E1F7234}"/>
@@ -3693,8 +6743,8 @@
   </sheetPr>
   <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10789,10 +13839,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10800,7 +13850,98 @@
     <col min="1" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/dashboards_I.xlsx
+++ b/dashboards_I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Youtube/04. DashBoard Especialista/01. Dashboard 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/01. Dashboard 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE744A1-67EB-4E80-A28F-5D3ABC05F4B4}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F1F86F2-6B65-4DF0-8FF8-46E270E846F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Dados" sheetId="2" r:id="rId1"/>
@@ -29,20 +29,31 @@
     <definedName name="RegrasProch">'[2]PROCV e PROCH'!$I$12:$L$13</definedName>
     <definedName name="taxaComissao2">'[3]Nomes de Intervalos'!$G$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="41">
   <si>
     <t>Priscila</t>
   </si>
@@ -109,6 +120,63 @@
   <si>
     <t>Categoria Despesa</t>
   </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>fev</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>abr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Soma de Valor Total</t>
+  </si>
+  <si>
+    <t>Cotações</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Taxa de Conversão</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +206,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -167,122 +263,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,18 +304,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3377,9 +3373,371 @@
   <cacheSource type="worksheet">
     <worksheetSource name="Reservas"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="7">
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-01T00:00:00" maxDate="2018-12-31T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-01T00:00:00" maxDate="2018-12-31T00:00:00" count="360">
+        <d v="2018-01-01T00:00:00"/>
+        <d v="2018-01-02T00:00:00"/>
+        <d v="2018-01-03T00:00:00"/>
+        <d v="2018-01-04T00:00:00"/>
+        <d v="2018-01-05T00:00:00"/>
+        <d v="2018-01-06T00:00:00"/>
+        <d v="2018-01-07T00:00:00"/>
+        <d v="2018-01-08T00:00:00"/>
+        <d v="2018-01-09T00:00:00"/>
+        <d v="2018-01-10T00:00:00"/>
+        <d v="2018-01-11T00:00:00"/>
+        <d v="2018-01-12T00:00:00"/>
+        <d v="2018-01-13T00:00:00"/>
+        <d v="2018-01-14T00:00:00"/>
+        <d v="2018-01-15T00:00:00"/>
+        <d v="2018-01-16T00:00:00"/>
+        <d v="2018-01-17T00:00:00"/>
+        <d v="2018-01-18T00:00:00"/>
+        <d v="2018-01-19T00:00:00"/>
+        <d v="2018-01-20T00:00:00"/>
+        <d v="2018-01-21T00:00:00"/>
+        <d v="2018-01-22T00:00:00"/>
+        <d v="2018-01-23T00:00:00"/>
+        <d v="2018-01-24T00:00:00"/>
+        <d v="2018-01-25T00:00:00"/>
+        <d v="2018-01-26T00:00:00"/>
+        <d v="2018-01-27T00:00:00"/>
+        <d v="2018-01-28T00:00:00"/>
+        <d v="2018-01-29T00:00:00"/>
+        <d v="2018-01-30T00:00:00"/>
+        <d v="2018-01-31T00:00:00"/>
+        <d v="2018-02-01T00:00:00"/>
+        <d v="2018-02-02T00:00:00"/>
+        <d v="2018-02-03T00:00:00"/>
+        <d v="2018-02-04T00:00:00"/>
+        <d v="2018-02-05T00:00:00"/>
+        <d v="2018-02-06T00:00:00"/>
+        <d v="2018-02-07T00:00:00"/>
+        <d v="2018-02-08T00:00:00"/>
+        <d v="2018-02-09T00:00:00"/>
+        <d v="2018-02-10T00:00:00"/>
+        <d v="2018-02-11T00:00:00"/>
+        <d v="2018-02-12T00:00:00"/>
+        <d v="2018-02-13T00:00:00"/>
+        <d v="2018-02-14T00:00:00"/>
+        <d v="2018-02-15T00:00:00"/>
+        <d v="2018-02-16T00:00:00"/>
+        <d v="2018-02-17T00:00:00"/>
+        <d v="2018-02-18T00:00:00"/>
+        <d v="2018-02-19T00:00:00"/>
+        <d v="2018-02-20T00:00:00"/>
+        <d v="2018-02-21T00:00:00"/>
+        <d v="2018-02-22T00:00:00"/>
+        <d v="2018-02-23T00:00:00"/>
+        <d v="2018-02-24T00:00:00"/>
+        <d v="2018-02-25T00:00:00"/>
+        <d v="2018-02-26T00:00:00"/>
+        <d v="2018-02-27T00:00:00"/>
+        <d v="2018-02-28T00:00:00"/>
+        <d v="2018-03-01T00:00:00"/>
+        <d v="2018-03-02T00:00:00"/>
+        <d v="2018-03-03T00:00:00"/>
+        <d v="2018-03-04T00:00:00"/>
+        <d v="2018-03-05T00:00:00"/>
+        <d v="2018-03-06T00:00:00"/>
+        <d v="2018-03-07T00:00:00"/>
+        <d v="2018-03-08T00:00:00"/>
+        <d v="2018-03-09T00:00:00"/>
+        <d v="2018-03-10T00:00:00"/>
+        <d v="2018-03-11T00:00:00"/>
+        <d v="2018-03-12T00:00:00"/>
+        <d v="2018-03-13T00:00:00"/>
+        <d v="2018-03-14T00:00:00"/>
+        <d v="2018-03-15T00:00:00"/>
+        <d v="2018-03-16T00:00:00"/>
+        <d v="2018-03-17T00:00:00"/>
+        <d v="2018-03-18T00:00:00"/>
+        <d v="2018-03-19T00:00:00"/>
+        <d v="2018-03-20T00:00:00"/>
+        <d v="2018-03-21T00:00:00"/>
+        <d v="2018-03-22T00:00:00"/>
+        <d v="2018-03-23T00:00:00"/>
+        <d v="2018-03-24T00:00:00"/>
+        <d v="2018-03-25T00:00:00"/>
+        <d v="2018-03-26T00:00:00"/>
+        <d v="2018-03-27T00:00:00"/>
+        <d v="2018-03-28T00:00:00"/>
+        <d v="2018-03-29T00:00:00"/>
+        <d v="2018-03-30T00:00:00"/>
+        <d v="2018-03-31T00:00:00"/>
+        <d v="2018-04-01T00:00:00"/>
+        <d v="2018-04-02T00:00:00"/>
+        <d v="2018-04-03T00:00:00"/>
+        <d v="2018-04-04T00:00:00"/>
+        <d v="2018-04-05T00:00:00"/>
+        <d v="2018-04-06T00:00:00"/>
+        <d v="2018-04-07T00:00:00"/>
+        <d v="2018-04-08T00:00:00"/>
+        <d v="2018-04-09T00:00:00"/>
+        <d v="2018-04-10T00:00:00"/>
+        <d v="2018-04-11T00:00:00"/>
+        <d v="2018-04-12T00:00:00"/>
+        <d v="2018-04-13T00:00:00"/>
+        <d v="2018-04-14T00:00:00"/>
+        <d v="2018-04-15T00:00:00"/>
+        <d v="2018-04-16T00:00:00"/>
+        <d v="2018-04-17T00:00:00"/>
+        <d v="2018-04-18T00:00:00"/>
+        <d v="2018-04-19T00:00:00"/>
+        <d v="2018-04-20T00:00:00"/>
+        <d v="2018-04-21T00:00:00"/>
+        <d v="2018-04-22T00:00:00"/>
+        <d v="2018-04-23T00:00:00"/>
+        <d v="2018-04-24T00:00:00"/>
+        <d v="2018-04-25T00:00:00"/>
+        <d v="2018-04-26T00:00:00"/>
+        <d v="2018-04-27T00:00:00"/>
+        <d v="2018-04-28T00:00:00"/>
+        <d v="2018-04-29T00:00:00"/>
+        <d v="2018-04-30T00:00:00"/>
+        <d v="2018-05-01T00:00:00"/>
+        <d v="2018-05-02T00:00:00"/>
+        <d v="2018-05-03T00:00:00"/>
+        <d v="2018-05-04T00:00:00"/>
+        <d v="2018-05-05T00:00:00"/>
+        <d v="2018-05-06T00:00:00"/>
+        <d v="2018-05-07T00:00:00"/>
+        <d v="2018-05-08T00:00:00"/>
+        <d v="2018-05-09T00:00:00"/>
+        <d v="2018-05-10T00:00:00"/>
+        <d v="2018-05-11T00:00:00"/>
+        <d v="2018-05-12T00:00:00"/>
+        <d v="2018-05-13T00:00:00"/>
+        <d v="2018-05-14T00:00:00"/>
+        <d v="2018-05-15T00:00:00"/>
+        <d v="2018-05-16T00:00:00"/>
+        <d v="2018-05-17T00:00:00"/>
+        <d v="2018-05-18T00:00:00"/>
+        <d v="2018-05-19T00:00:00"/>
+        <d v="2018-05-20T00:00:00"/>
+        <d v="2018-05-21T00:00:00"/>
+        <d v="2018-05-22T00:00:00"/>
+        <d v="2018-05-23T00:00:00"/>
+        <d v="2018-05-24T00:00:00"/>
+        <d v="2018-05-25T00:00:00"/>
+        <d v="2018-05-26T00:00:00"/>
+        <d v="2018-05-27T00:00:00"/>
+        <d v="2018-05-28T00:00:00"/>
+        <d v="2018-05-29T00:00:00"/>
+        <d v="2018-05-30T00:00:00"/>
+        <d v="2018-05-31T00:00:00"/>
+        <d v="2018-06-01T00:00:00"/>
+        <d v="2018-06-02T00:00:00"/>
+        <d v="2018-06-03T00:00:00"/>
+        <d v="2018-06-04T00:00:00"/>
+        <d v="2018-06-05T00:00:00"/>
+        <d v="2018-06-06T00:00:00"/>
+        <d v="2018-06-07T00:00:00"/>
+        <d v="2018-06-08T00:00:00"/>
+        <d v="2018-06-09T00:00:00"/>
+        <d v="2018-06-10T00:00:00"/>
+        <d v="2018-06-11T00:00:00"/>
+        <d v="2018-06-12T00:00:00"/>
+        <d v="2018-06-13T00:00:00"/>
+        <d v="2018-06-14T00:00:00"/>
+        <d v="2018-06-15T00:00:00"/>
+        <d v="2018-06-16T00:00:00"/>
+        <d v="2018-06-17T00:00:00"/>
+        <d v="2018-06-18T00:00:00"/>
+        <d v="2018-06-19T00:00:00"/>
+        <d v="2018-06-20T00:00:00"/>
+        <d v="2018-06-21T00:00:00"/>
+        <d v="2018-06-22T00:00:00"/>
+        <d v="2018-06-23T00:00:00"/>
+        <d v="2018-06-24T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-06-26T00:00:00"/>
+        <d v="2018-06-27T00:00:00"/>
+        <d v="2018-06-28T00:00:00"/>
+        <d v="2018-06-29T00:00:00"/>
+        <d v="2018-06-30T00:00:00"/>
+        <d v="2018-07-01T00:00:00"/>
+        <d v="2018-07-02T00:00:00"/>
+        <d v="2018-07-03T00:00:00"/>
+        <d v="2018-07-04T00:00:00"/>
+        <d v="2018-07-05T00:00:00"/>
+        <d v="2018-07-06T00:00:00"/>
+        <d v="2018-07-07T00:00:00"/>
+        <d v="2018-07-08T00:00:00"/>
+        <d v="2018-07-09T00:00:00"/>
+        <d v="2018-07-10T00:00:00"/>
+        <d v="2018-07-11T00:00:00"/>
+        <d v="2018-07-12T00:00:00"/>
+        <d v="2018-07-13T00:00:00"/>
+        <d v="2018-07-14T00:00:00"/>
+        <d v="2018-07-15T00:00:00"/>
+        <d v="2018-07-16T00:00:00"/>
+        <d v="2018-07-17T00:00:00"/>
+        <d v="2018-07-18T00:00:00"/>
+        <d v="2018-07-19T00:00:00"/>
+        <d v="2018-07-20T00:00:00"/>
+        <d v="2018-07-21T00:00:00"/>
+        <d v="2018-07-22T00:00:00"/>
+        <d v="2018-07-23T00:00:00"/>
+        <d v="2018-07-24T00:00:00"/>
+        <d v="2018-07-25T00:00:00"/>
+        <d v="2018-07-26T00:00:00"/>
+        <d v="2018-07-27T00:00:00"/>
+        <d v="2018-07-28T00:00:00"/>
+        <d v="2018-07-29T00:00:00"/>
+        <d v="2018-07-30T00:00:00"/>
+        <d v="2018-07-31T00:00:00"/>
+        <d v="2018-08-01T00:00:00"/>
+        <d v="2018-08-02T00:00:00"/>
+        <d v="2018-08-03T00:00:00"/>
+        <d v="2018-08-04T00:00:00"/>
+        <d v="2018-08-05T00:00:00"/>
+        <d v="2018-08-06T00:00:00"/>
+        <d v="2018-08-07T00:00:00"/>
+        <d v="2018-08-08T00:00:00"/>
+        <d v="2018-08-09T00:00:00"/>
+        <d v="2018-08-10T00:00:00"/>
+        <d v="2018-08-11T00:00:00"/>
+        <d v="2018-08-12T00:00:00"/>
+        <d v="2018-08-13T00:00:00"/>
+        <d v="2018-08-14T00:00:00"/>
+        <d v="2018-08-15T00:00:00"/>
+        <d v="2018-08-16T00:00:00"/>
+        <d v="2018-08-17T00:00:00"/>
+        <d v="2018-08-18T00:00:00"/>
+        <d v="2018-08-19T00:00:00"/>
+        <d v="2018-08-20T00:00:00"/>
+        <d v="2018-08-21T00:00:00"/>
+        <d v="2018-08-22T00:00:00"/>
+        <d v="2018-08-23T00:00:00"/>
+        <d v="2018-08-24T00:00:00"/>
+        <d v="2018-08-25T00:00:00"/>
+        <d v="2018-08-26T00:00:00"/>
+        <d v="2018-08-27T00:00:00"/>
+        <d v="2018-08-28T00:00:00"/>
+        <d v="2018-09-01T00:00:00"/>
+        <d v="2018-09-02T00:00:00"/>
+        <d v="2018-09-03T00:00:00"/>
+        <d v="2018-09-04T00:00:00"/>
+        <d v="2018-09-05T00:00:00"/>
+        <d v="2018-09-06T00:00:00"/>
+        <d v="2018-09-07T00:00:00"/>
+        <d v="2018-09-08T00:00:00"/>
+        <d v="2018-09-09T00:00:00"/>
+        <d v="2018-09-10T00:00:00"/>
+        <d v="2018-09-11T00:00:00"/>
+        <d v="2018-09-12T00:00:00"/>
+        <d v="2018-09-13T00:00:00"/>
+        <d v="2018-09-14T00:00:00"/>
+        <d v="2018-09-15T00:00:00"/>
+        <d v="2018-09-16T00:00:00"/>
+        <d v="2018-09-17T00:00:00"/>
+        <d v="2018-09-18T00:00:00"/>
+        <d v="2018-09-19T00:00:00"/>
+        <d v="2018-09-20T00:00:00"/>
+        <d v="2018-09-21T00:00:00"/>
+        <d v="2018-09-22T00:00:00"/>
+        <d v="2018-09-23T00:00:00"/>
+        <d v="2018-09-24T00:00:00"/>
+        <d v="2018-09-25T00:00:00"/>
+        <d v="2018-09-26T00:00:00"/>
+        <d v="2018-09-27T00:00:00"/>
+        <d v="2018-09-28T00:00:00"/>
+        <d v="2018-09-29T00:00:00"/>
+        <d v="2018-09-30T00:00:00"/>
+        <d v="2018-10-01T00:00:00"/>
+        <d v="2018-10-02T00:00:00"/>
+        <d v="2018-10-03T00:00:00"/>
+        <d v="2018-10-04T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-06T00:00:00"/>
+        <d v="2018-10-07T00:00:00"/>
+        <d v="2018-10-08T00:00:00"/>
+        <d v="2018-10-09T00:00:00"/>
+        <d v="2018-10-10T00:00:00"/>
+        <d v="2018-10-11T00:00:00"/>
+        <d v="2018-10-12T00:00:00"/>
+        <d v="2018-10-13T00:00:00"/>
+        <d v="2018-10-14T00:00:00"/>
+        <d v="2018-10-15T00:00:00"/>
+        <d v="2018-10-16T00:00:00"/>
+        <d v="2018-10-17T00:00:00"/>
+        <d v="2018-10-18T00:00:00"/>
+        <d v="2018-10-19T00:00:00"/>
+        <d v="2018-10-20T00:00:00"/>
+        <d v="2018-10-21T00:00:00"/>
+        <d v="2018-10-22T00:00:00"/>
+        <d v="2018-10-23T00:00:00"/>
+        <d v="2018-10-24T00:00:00"/>
+        <d v="2018-10-25T00:00:00"/>
+        <d v="2018-10-26T00:00:00"/>
+        <d v="2018-10-27T00:00:00"/>
+        <d v="2018-10-28T00:00:00"/>
+        <d v="2018-10-29T00:00:00"/>
+        <d v="2018-10-30T00:00:00"/>
+        <d v="2018-11-01T00:00:00"/>
+        <d v="2018-11-02T00:00:00"/>
+        <d v="2018-11-03T00:00:00"/>
+        <d v="2018-11-04T00:00:00"/>
+        <d v="2018-11-05T00:00:00"/>
+        <d v="2018-11-06T00:00:00"/>
+        <d v="2018-11-07T00:00:00"/>
+        <d v="2018-11-08T00:00:00"/>
+        <d v="2018-11-09T00:00:00"/>
+        <d v="2018-11-10T00:00:00"/>
+        <d v="2018-11-11T00:00:00"/>
+        <d v="2018-11-12T00:00:00"/>
+        <d v="2018-11-13T00:00:00"/>
+        <d v="2018-11-14T00:00:00"/>
+        <d v="2018-11-15T00:00:00"/>
+        <d v="2018-11-16T00:00:00"/>
+        <d v="2018-11-17T00:00:00"/>
+        <d v="2018-11-18T00:00:00"/>
+        <d v="2018-11-19T00:00:00"/>
+        <d v="2018-11-20T00:00:00"/>
+        <d v="2018-11-21T00:00:00"/>
+        <d v="2018-11-22T00:00:00"/>
+        <d v="2018-11-23T00:00:00"/>
+        <d v="2018-11-24T00:00:00"/>
+        <d v="2018-11-25T00:00:00"/>
+        <d v="2018-11-26T00:00:00"/>
+        <d v="2018-11-27T00:00:00"/>
+        <d v="2018-11-28T00:00:00"/>
+        <d v="2018-11-29T00:00:00"/>
+        <d v="2018-11-30T00:00:00"/>
+        <d v="2018-12-01T00:00:00"/>
+        <d v="2018-12-02T00:00:00"/>
+        <d v="2018-12-03T00:00:00"/>
+        <d v="2018-12-04T00:00:00"/>
+        <d v="2018-12-05T00:00:00"/>
+        <d v="2018-12-06T00:00:00"/>
+        <d v="2018-12-07T00:00:00"/>
+        <d v="2018-12-08T00:00:00"/>
+        <d v="2018-12-09T00:00:00"/>
+        <d v="2018-12-10T00:00:00"/>
+        <d v="2018-12-11T00:00:00"/>
+        <d v="2018-12-12T00:00:00"/>
+        <d v="2018-12-13T00:00:00"/>
+        <d v="2018-12-14T00:00:00"/>
+        <d v="2018-12-15T00:00:00"/>
+        <d v="2018-12-16T00:00:00"/>
+        <d v="2018-12-17T00:00:00"/>
+        <d v="2018-12-18T00:00:00"/>
+        <d v="2018-12-19T00:00:00"/>
+        <d v="2018-12-20T00:00:00"/>
+        <d v="2018-12-21T00:00:00"/>
+        <d v="2018-12-22T00:00:00"/>
+        <d v="2018-12-23T00:00:00"/>
+        <d v="2018-12-24T00:00:00"/>
+        <d v="2018-12-25T00:00:00"/>
+        <d v="2018-12-26T00:00:00"/>
+        <d v="2018-12-27T00:00:00"/>
+        <d v="2018-12-28T00:00:00"/>
+        <d v="2018-12-29T00:00:00"/>
+        <d v="2018-12-30T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="6"/>
     </cacheField>
     <cacheField name="Tipo Reserva" numFmtId="1">
       <sharedItems/>
@@ -3391,7 +3749,406 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Status" numFmtId="44">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Finalizada"/>
+        <s v="Cotação"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dias (Data)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="days" startDate="2018-01-01T00:00:00" endDate="2018-12-31T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;01/01/2018"/>
+          <s v="01/jan"/>
+          <s v="02/jan"/>
+          <s v="03/jan"/>
+          <s v="04/jan"/>
+          <s v="05/jan"/>
+          <s v="06/jan"/>
+          <s v="07/jan"/>
+          <s v="08/jan"/>
+          <s v="09/jan"/>
+          <s v="10/jan"/>
+          <s v="11/jan"/>
+          <s v="12/jan"/>
+          <s v="13/jan"/>
+          <s v="14/jan"/>
+          <s v="15/jan"/>
+          <s v="16/jan"/>
+          <s v="17/jan"/>
+          <s v="18/jan"/>
+          <s v="19/jan"/>
+          <s v="20/jan"/>
+          <s v="21/jan"/>
+          <s v="22/jan"/>
+          <s v="23/jan"/>
+          <s v="24/jan"/>
+          <s v="25/jan"/>
+          <s v="26/jan"/>
+          <s v="27/jan"/>
+          <s v="28/jan"/>
+          <s v="29/jan"/>
+          <s v="30/jan"/>
+          <s v="31/jan"/>
+          <s v="01/fev"/>
+          <s v="02/fev"/>
+          <s v="03/fev"/>
+          <s v="04/fev"/>
+          <s v="05/fev"/>
+          <s v="06/fev"/>
+          <s v="07/fev"/>
+          <s v="08/fev"/>
+          <s v="09/fev"/>
+          <s v="10/fev"/>
+          <s v="11/fev"/>
+          <s v="12/fev"/>
+          <s v="13/fev"/>
+          <s v="14/fev"/>
+          <s v="15/fev"/>
+          <s v="16/fev"/>
+          <s v="17/fev"/>
+          <s v="18/fev"/>
+          <s v="19/fev"/>
+          <s v="20/fev"/>
+          <s v="21/fev"/>
+          <s v="22/fev"/>
+          <s v="23/fev"/>
+          <s v="24/fev"/>
+          <s v="25/fev"/>
+          <s v="26/fev"/>
+          <s v="27/fev"/>
+          <s v="28/fev"/>
+          <s v="29/fev"/>
+          <s v="01/mar"/>
+          <s v="02/mar"/>
+          <s v="03/mar"/>
+          <s v="04/mar"/>
+          <s v="05/mar"/>
+          <s v="06/mar"/>
+          <s v="07/mar"/>
+          <s v="08/mar"/>
+          <s v="09/mar"/>
+          <s v="10/mar"/>
+          <s v="11/mar"/>
+          <s v="12/mar"/>
+          <s v="13/mar"/>
+          <s v="14/mar"/>
+          <s v="15/mar"/>
+          <s v="16/mar"/>
+          <s v="17/mar"/>
+          <s v="18/mar"/>
+          <s v="19/mar"/>
+          <s v="20/mar"/>
+          <s v="21/mar"/>
+          <s v="22/mar"/>
+          <s v="23/mar"/>
+          <s v="24/mar"/>
+          <s v="25/mar"/>
+          <s v="26/mar"/>
+          <s v="27/mar"/>
+          <s v="28/mar"/>
+          <s v="29/mar"/>
+          <s v="30/mar"/>
+          <s v="31/mar"/>
+          <s v="01/abr"/>
+          <s v="02/abr"/>
+          <s v="03/abr"/>
+          <s v="04/abr"/>
+          <s v="05/abr"/>
+          <s v="06/abr"/>
+          <s v="07/abr"/>
+          <s v="08/abr"/>
+          <s v="09/abr"/>
+          <s v="10/abr"/>
+          <s v="11/abr"/>
+          <s v="12/abr"/>
+          <s v="13/abr"/>
+          <s v="14/abr"/>
+          <s v="15/abr"/>
+          <s v="16/abr"/>
+          <s v="17/abr"/>
+          <s v="18/abr"/>
+          <s v="19/abr"/>
+          <s v="20/abr"/>
+          <s v="21/abr"/>
+          <s v="22/abr"/>
+          <s v="23/abr"/>
+          <s v="24/abr"/>
+          <s v="25/abr"/>
+          <s v="26/abr"/>
+          <s v="27/abr"/>
+          <s v="28/abr"/>
+          <s v="29/abr"/>
+          <s v="30/abr"/>
+          <s v="01/mai"/>
+          <s v="02/mai"/>
+          <s v="03/mai"/>
+          <s v="04/mai"/>
+          <s v="05/mai"/>
+          <s v="06/mai"/>
+          <s v="07/mai"/>
+          <s v="08/mai"/>
+          <s v="09/mai"/>
+          <s v="10/mai"/>
+          <s v="11/mai"/>
+          <s v="12/mai"/>
+          <s v="13/mai"/>
+          <s v="14/mai"/>
+          <s v="15/mai"/>
+          <s v="16/mai"/>
+          <s v="17/mai"/>
+          <s v="18/mai"/>
+          <s v="19/mai"/>
+          <s v="20/mai"/>
+          <s v="21/mai"/>
+          <s v="22/mai"/>
+          <s v="23/mai"/>
+          <s v="24/mai"/>
+          <s v="25/mai"/>
+          <s v="26/mai"/>
+          <s v="27/mai"/>
+          <s v="28/mai"/>
+          <s v="29/mai"/>
+          <s v="30/mai"/>
+          <s v="31/mai"/>
+          <s v="01/jun"/>
+          <s v="02/jun"/>
+          <s v="03/jun"/>
+          <s v="04/jun"/>
+          <s v="05/jun"/>
+          <s v="06/jun"/>
+          <s v="07/jun"/>
+          <s v="08/jun"/>
+          <s v="09/jun"/>
+          <s v="10/jun"/>
+          <s v="11/jun"/>
+          <s v="12/jun"/>
+          <s v="13/jun"/>
+          <s v="14/jun"/>
+          <s v="15/jun"/>
+          <s v="16/jun"/>
+          <s v="17/jun"/>
+          <s v="18/jun"/>
+          <s v="19/jun"/>
+          <s v="20/jun"/>
+          <s v="21/jun"/>
+          <s v="22/jun"/>
+          <s v="23/jun"/>
+          <s v="24/jun"/>
+          <s v="25/jun"/>
+          <s v="26/jun"/>
+          <s v="27/jun"/>
+          <s v="28/jun"/>
+          <s v="29/jun"/>
+          <s v="30/jun"/>
+          <s v="01/jul"/>
+          <s v="02/jul"/>
+          <s v="03/jul"/>
+          <s v="04/jul"/>
+          <s v="05/jul"/>
+          <s v="06/jul"/>
+          <s v="07/jul"/>
+          <s v="08/jul"/>
+          <s v="09/jul"/>
+          <s v="10/jul"/>
+          <s v="11/jul"/>
+          <s v="12/jul"/>
+          <s v="13/jul"/>
+          <s v="14/jul"/>
+          <s v="15/jul"/>
+          <s v="16/jul"/>
+          <s v="17/jul"/>
+          <s v="18/jul"/>
+          <s v="19/jul"/>
+          <s v="20/jul"/>
+          <s v="21/jul"/>
+          <s v="22/jul"/>
+          <s v="23/jul"/>
+          <s v="24/jul"/>
+          <s v="25/jul"/>
+          <s v="26/jul"/>
+          <s v="27/jul"/>
+          <s v="28/jul"/>
+          <s v="29/jul"/>
+          <s v="30/jul"/>
+          <s v="31/jul"/>
+          <s v="01/ago"/>
+          <s v="02/ago"/>
+          <s v="03/ago"/>
+          <s v="04/ago"/>
+          <s v="05/ago"/>
+          <s v="06/ago"/>
+          <s v="07/ago"/>
+          <s v="08/ago"/>
+          <s v="09/ago"/>
+          <s v="10/ago"/>
+          <s v="11/ago"/>
+          <s v="12/ago"/>
+          <s v="13/ago"/>
+          <s v="14/ago"/>
+          <s v="15/ago"/>
+          <s v="16/ago"/>
+          <s v="17/ago"/>
+          <s v="18/ago"/>
+          <s v="19/ago"/>
+          <s v="20/ago"/>
+          <s v="21/ago"/>
+          <s v="22/ago"/>
+          <s v="23/ago"/>
+          <s v="24/ago"/>
+          <s v="25/ago"/>
+          <s v="26/ago"/>
+          <s v="27/ago"/>
+          <s v="28/ago"/>
+          <s v="29/ago"/>
+          <s v="30/ago"/>
+          <s v="31/ago"/>
+          <s v="01/set"/>
+          <s v="02/set"/>
+          <s v="03/set"/>
+          <s v="04/set"/>
+          <s v="05/set"/>
+          <s v="06/set"/>
+          <s v="07/set"/>
+          <s v="08/set"/>
+          <s v="09/set"/>
+          <s v="10/set"/>
+          <s v="11/set"/>
+          <s v="12/set"/>
+          <s v="13/set"/>
+          <s v="14/set"/>
+          <s v="15/set"/>
+          <s v="16/set"/>
+          <s v="17/set"/>
+          <s v="18/set"/>
+          <s v="19/set"/>
+          <s v="20/set"/>
+          <s v="21/set"/>
+          <s v="22/set"/>
+          <s v="23/set"/>
+          <s v="24/set"/>
+          <s v="25/set"/>
+          <s v="26/set"/>
+          <s v="27/set"/>
+          <s v="28/set"/>
+          <s v="29/set"/>
+          <s v="30/set"/>
+          <s v="01/out"/>
+          <s v="02/out"/>
+          <s v="03/out"/>
+          <s v="04/out"/>
+          <s v="05/out"/>
+          <s v="06/out"/>
+          <s v="07/out"/>
+          <s v="08/out"/>
+          <s v="09/out"/>
+          <s v="10/out"/>
+          <s v="11/out"/>
+          <s v="12/out"/>
+          <s v="13/out"/>
+          <s v="14/out"/>
+          <s v="15/out"/>
+          <s v="16/out"/>
+          <s v="17/out"/>
+          <s v="18/out"/>
+          <s v="19/out"/>
+          <s v="20/out"/>
+          <s v="21/out"/>
+          <s v="22/out"/>
+          <s v="23/out"/>
+          <s v="24/out"/>
+          <s v="25/out"/>
+          <s v="26/out"/>
+          <s v="27/out"/>
+          <s v="28/out"/>
+          <s v="29/out"/>
+          <s v="30/out"/>
+          <s v="31/out"/>
+          <s v="01/nov"/>
+          <s v="02/nov"/>
+          <s v="03/nov"/>
+          <s v="04/nov"/>
+          <s v="05/nov"/>
+          <s v="06/nov"/>
+          <s v="07/nov"/>
+          <s v="08/nov"/>
+          <s v="09/nov"/>
+          <s v="10/nov"/>
+          <s v="11/nov"/>
+          <s v="12/nov"/>
+          <s v="13/nov"/>
+          <s v="14/nov"/>
+          <s v="15/nov"/>
+          <s v="16/nov"/>
+          <s v="17/nov"/>
+          <s v="18/nov"/>
+          <s v="19/nov"/>
+          <s v="20/nov"/>
+          <s v="21/nov"/>
+          <s v="22/nov"/>
+          <s v="23/nov"/>
+          <s v="24/nov"/>
+          <s v="25/nov"/>
+          <s v="26/nov"/>
+          <s v="27/nov"/>
+          <s v="28/nov"/>
+          <s v="29/nov"/>
+          <s v="30/nov"/>
+          <s v="01/dez"/>
+          <s v="02/dez"/>
+          <s v="03/dez"/>
+          <s v="04/dez"/>
+          <s v="05/dez"/>
+          <s v="06/dez"/>
+          <s v="07/dez"/>
+          <s v="08/dez"/>
+          <s v="09/dez"/>
+          <s v="10/dez"/>
+          <s v="11/dez"/>
+          <s v="12/dez"/>
+          <s v="13/dez"/>
+          <s v="14/dez"/>
+          <s v="15/dez"/>
+          <s v="16/dez"/>
+          <s v="17/dez"/>
+          <s v="18/dez"/>
+          <s v="19/dez"/>
+          <s v="20/dez"/>
+          <s v="21/dez"/>
+          <s v="22/dez"/>
+          <s v="23/dez"/>
+          <s v="24/dez"/>
+          <s v="25/dez"/>
+          <s v="26/dez"/>
+          <s v="27/dez"/>
+          <s v="28/dez"/>
+          <s v="29/dez"/>
+          <s v="30/dez"/>
+          <s v="31/dez"/>
+          <s v="&gt;31/12/2018"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Meses (Data)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2018-01-01T00:00:00" endDate="2018-12-31T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/01/2018"/>
+          <s v="jan"/>
+          <s v="fev"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="mai"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="set"/>
+          <s v="out"/>
+          <s v="nov"/>
+          <s v="dez"/>
+          <s v="&gt;31/12/2018"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3405,2888 +4162,3713 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="410">
   <r>
-    <d v="2018-01-01T00:00:00"/>
+    <x v="0"/>
     <s v="Hospedagem"/>
     <n v="1345"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <s v="Hospedagem"/>
     <n v="3475"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
     <s v="Serviço"/>
     <n v="1450"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
     <s v="Serviço"/>
     <n v="1485"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
     <s v="Serviço"/>
     <n v="2400"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
     <s v="Hospedagem"/>
     <n v="1520"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
     <s v="Serviço"/>
     <n v="1625"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
     <s v="Serviço"/>
     <n v="1660"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
     <s v="Hospedagem"/>
     <n v="1695"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
     <s v="Serviço"/>
     <n v="1800"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
     <s v="Hospedagem"/>
     <n v="5798"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
     <s v="Hospedagem"/>
     <n v="1870"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
     <s v="Serviço"/>
     <n v="2345"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
     <s v="Serviço"/>
     <n v="1975"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-21T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
     <s v="Hospedagem"/>
     <n v="2045"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
     <s v="Serviço"/>
     <n v="2150"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
     <s v="Hospedagem"/>
     <n v="2220"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
     <s v="Serviço"/>
     <n v="2325"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-01-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-01-31T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
     <s v="Hospedagem"/>
     <n v="2395"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
     <s v="Serviço"/>
     <n v="2500"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
     <s v="Hospedagem"/>
     <n v="2570"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
     <s v="Serviço"/>
     <n v="2675"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
     <s v="Hospedagem"/>
     <n v="2745"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="43"/>
     <s v="Serviço"/>
     <n v="2850"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
     <s v="Hospedagem"/>
     <n v="2920"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-18T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
     <s v="Serviço"/>
     <n v="3025"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
     <s v="Hospedagem"/>
     <n v="3095"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
     <s v="Serviço"/>
     <n v="3200"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
     <s v="Serviço"/>
     <n v="2345"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
     <s v="Hospedagem"/>
     <n v="3270"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-02-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-02-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="58"/>
     <s v="Serviço"/>
     <n v="3375"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
     <s v="Serviço"/>
     <n v="1345"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-02T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
     <s v="Hospedagem"/>
     <n v="1450"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
     <s v="Hospedagem"/>
     <n v="4983"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
     <s v="Hospedagem"/>
     <n v="9845"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
     <s v="Hospedagem"/>
     <n v="7895"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
     <s v="Serviço"/>
     <n v="1485"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
     <s v="Serviço"/>
     <n v="1520"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="67"/>
     <s v="Hospedagem"/>
     <n v="1625"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="68"/>
     <s v="Serviço"/>
     <n v="1660"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Serviço"/>
     <n v="1695"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Hospedagem"/>
     <n v="9567"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
     <s v="Hospedagem"/>
     <n v="4567"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="70"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="71"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="72"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="73"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
     <s v="Serviço"/>
     <n v="1870"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-17T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="76"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="77"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="78"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="79"/>
     <s v="Serviço"/>
     <n v="2045"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-22T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="80"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="83"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="84"/>
     <s v="Serviço"/>
     <n v="2220"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-27T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="86"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-29T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-03-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="88"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-03-31T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="89"/>
     <s v="Serviço"/>
     <n v="2395"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-01T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="90"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="91"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="92"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="93"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="94"/>
     <s v="Serviço"/>
     <n v="2570"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="8967"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="7896"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="6543"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="96"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="97"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="98"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="99"/>
     <s v="Serviço"/>
     <n v="2745"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="100"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="101"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="102"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="103"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="104"/>
     <s v="Serviço"/>
     <n v="2920"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-16T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="105"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="106"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="107"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="108"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
     <s v="Serviço"/>
     <n v="3095"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="109"/>
     <s v="Serviço"/>
     <n v="3456"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
     <s v="Serviço"/>
     <n v="4567"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
     <s v="Serviço"/>
     <n v="5345"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
     <s v="Serviço"/>
     <n v="3456"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="110"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="111"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="112"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="113"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="114"/>
     <s v="Serviço"/>
     <n v="3270"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="115"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="116"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="117"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-04-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="118"/>
     <s v="Serviço"/>
     <n v="3410"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-04-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="119"/>
     <s v="Serviço"/>
     <n v="3445"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-01T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="120"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="121"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="122"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="123"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="124"/>
     <s v="Serviço"/>
     <n v="1870"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-06T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="125"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="126"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="127"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="128"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="129"/>
     <s v="Serviço"/>
     <n v="2045"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="130"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="131"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="132"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="133"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="134"/>
     <s v="Serviço"/>
     <n v="2220"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-16T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="135"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="136"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="137"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="138"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="139"/>
     <s v="Serviço"/>
     <n v="2395"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-21T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="140"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="141"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="142"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="143"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="144"/>
     <s v="Serviço"/>
     <n v="2570"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="145"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="146"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="147"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="148"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-05-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="149"/>
     <s v="Serviço"/>
     <n v="2745"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-05-31T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="150"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="151"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="152"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="153"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="154"/>
     <s v="Serviço"/>
     <n v="2920"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="155"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="156"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="157"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-08T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="158"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="159"/>
     <s v="Serviço"/>
     <n v="3095"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="160"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="161"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="162"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="163"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="164"/>
     <s v="Serviço"/>
     <n v="3270"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="165"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="166"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="167"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-18T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="168"/>
     <s v="Serviço"/>
     <n v="3410"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="169"/>
     <s v="Serviço"/>
     <n v="3445"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="170"/>
     <s v="Hospedagem"/>
     <n v="3480"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="171"/>
     <s v="Hospedagem"/>
     <n v="3515"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="172"/>
     <s v="Hospedagem"/>
     <n v="3550"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="173"/>
     <s v="Serviço"/>
     <n v="3585"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="174"/>
     <s v="Serviço"/>
     <n v="3620"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="175"/>
     <s v="Hospedagem"/>
     <n v="3655"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="176"/>
     <s v="Hospedagem"/>
     <n v="3690"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="177"/>
     <s v="Hospedagem"/>
     <n v="3725"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="178"/>
     <s v="Serviço"/>
     <n v="3760"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-06-29T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="179"/>
     <s v="Serviço"/>
     <n v="3795"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-06-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="180"/>
     <s v="Hospedagem"/>
     <n v="3830"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="181"/>
     <s v="Hospedagem"/>
     <n v="1345"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="182"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="183"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="183"/>
     <s v="Hospedagem"/>
     <n v="3475"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="184"/>
     <s v="Serviço"/>
     <n v="1450"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="185"/>
     <s v="Serviço"/>
     <n v="1485"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="185"/>
     <s v="Serviço"/>
     <n v="2400"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="186"/>
     <s v="Hospedagem"/>
     <n v="1520"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="187"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="188"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="189"/>
     <s v="Serviço"/>
     <n v="1625"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="190"/>
     <s v="Serviço"/>
     <n v="1660"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="191"/>
     <s v="Hospedagem"/>
     <n v="1695"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="192"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="193"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="194"/>
     <s v="Serviço"/>
     <n v="1800"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="195"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="195"/>
     <s v="Hospedagem"/>
     <n v="5798"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="196"/>
     <s v="Hospedagem"/>
     <n v="1870"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="197"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="197"/>
     <s v="Serviço"/>
     <n v="2345"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="198"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="199"/>
     <s v="Serviço"/>
     <n v="1975"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="200"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-21T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="201"/>
     <s v="Hospedagem"/>
     <n v="2045"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="202"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="203"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="204"/>
     <s v="Serviço"/>
     <n v="2150"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="205"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="206"/>
     <s v="Hospedagem"/>
     <n v="2220"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="207"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="208"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="209"/>
     <s v="Serviço"/>
     <n v="2325"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-07-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="210"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-07-31T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="211"/>
     <s v="Hospedagem"/>
     <n v="2395"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="212"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="213"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="214"/>
     <s v="Serviço"/>
     <n v="2500"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="215"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="216"/>
     <s v="Hospedagem"/>
     <n v="2570"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="217"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="218"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="218"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="219"/>
     <s v="Serviço"/>
     <n v="2675"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="220"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="221"/>
     <s v="Hospedagem"/>
     <n v="2745"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="222"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="223"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="224"/>
     <s v="Serviço"/>
     <n v="2850"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="225"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="226"/>
     <s v="Hospedagem"/>
     <n v="2920"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="227"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="228"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-18T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="229"/>
     <s v="Serviço"/>
     <n v="3025"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="230"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="231"/>
     <s v="Hospedagem"/>
     <n v="3095"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="232"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="233"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="234"/>
     <s v="Serviço"/>
     <n v="3200"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="235"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="235"/>
     <s v="Serviço"/>
     <n v="2345"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="236"/>
     <s v="Hospedagem"/>
     <n v="3270"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="237"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-08-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="238"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-08-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="239"/>
     <s v="Serviço"/>
     <n v="3375"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="240"/>
     <s v="Serviço"/>
     <n v="1345"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-02T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="241"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="242"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="243"/>
     <s v="Hospedagem"/>
     <n v="1450"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="243"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="243"/>
     <s v="Hospedagem"/>
     <n v="4983"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="243"/>
     <s v="Hospedagem"/>
     <n v="9845"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="243"/>
     <s v="Hospedagem"/>
     <n v="7895"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="244"/>
     <s v="Serviço"/>
     <n v="1485"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="245"/>
     <s v="Serviço"/>
     <n v="1520"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="246"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="247"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="248"/>
     <s v="Hospedagem"/>
     <n v="1625"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="249"/>
     <s v="Serviço"/>
     <n v="1660"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Serviço"/>
     <n v="1695"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Hospedagem"/>
     <n v="9567"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="250"/>
     <s v="Hospedagem"/>
     <n v="4567"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="251"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="252"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="253"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="254"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="255"/>
     <s v="Serviço"/>
     <n v="1870"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-17T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="256"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="257"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="258"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="259"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="260"/>
     <s v="Serviço"/>
     <n v="2045"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-22T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="261"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="262"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="263"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="264"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="265"/>
     <s v="Serviço"/>
     <n v="2220"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-27T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="266"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="267"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-29T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="268"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-09-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="269"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-09-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="269"/>
     <s v="Serviço"/>
     <n v="2395"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-01T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="270"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="271"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="272"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="273"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="274"/>
     <s v="Serviço"/>
     <n v="2570"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="8967"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="7896"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="6543"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="275"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="276"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="277"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="278"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="279"/>
     <s v="Serviço"/>
     <n v="2745"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="280"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="281"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="282"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="283"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="284"/>
     <s v="Serviço"/>
     <n v="2920"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-16T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="285"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="286"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="287"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="288"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="289"/>
     <s v="Serviço"/>
     <n v="3095"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="289"/>
     <s v="Serviço"/>
     <n v="3456"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="289"/>
     <s v="Serviço"/>
     <n v="4567"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="289"/>
     <s v="Serviço"/>
     <n v="5345"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="289"/>
     <s v="Serviço"/>
     <n v="3456"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="290"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="291"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="292"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="293"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="294"/>
     <s v="Serviço"/>
     <n v="3270"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="295"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="296"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="297"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-10-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="298"/>
     <s v="Serviço"/>
     <n v="3410"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-10-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="299"/>
     <s v="Serviço"/>
     <n v="3445"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-01T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="300"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="301"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="302"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-04T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="303"/>
     <s v="Serviço"/>
     <n v="1835"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="304"/>
     <s v="Serviço"/>
     <n v="1870"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-06T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="305"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="306"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="307"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="308"/>
     <s v="Serviço"/>
     <n v="2010"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="309"/>
     <s v="Serviço"/>
     <n v="2045"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="310"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="311"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-13T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="313"/>
     <s v="Serviço"/>
     <n v="2185"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
     <s v="Serviço"/>
     <n v="2220"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-16T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="315"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="318"/>
     <s v="Serviço"/>
     <n v="2360"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
     <s v="Serviço"/>
     <n v="2395"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-21T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="320"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-24T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="323"/>
     <s v="Serviço"/>
     <n v="2535"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
     <s v="Serviço"/>
     <n v="2570"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="325"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="326"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="327"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="328"/>
     <s v="Serviço"/>
     <n v="2710"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-11-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
     <s v="Serviço"/>
     <n v="2745"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-11-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="329"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="332"/>
     <s v="Serviço"/>
     <n v="2885"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
     <s v="Serviço"/>
     <n v="2920"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="334"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-07T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-08T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="337"/>
     <s v="Serviço"/>
     <n v="3060"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
     <s v="Serviço"/>
     <n v="3095"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-10T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="339"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="342"/>
     <s v="Serviço"/>
     <n v="3235"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
     <s v="Serviço"/>
     <n v="3270"/>
     <s v="Letícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="344"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="346"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-18T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="347"/>
     <s v="Serviço"/>
     <n v="3410"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="348"/>
     <s v="Serviço"/>
     <n v="3445"/>
     <s v="Priscila"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="349"/>
     <s v="Hospedagem"/>
     <n v="3480"/>
     <s v="Carlos"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="350"/>
     <s v="Hospedagem"/>
     <n v="3515"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="351"/>
     <s v="Hospedagem"/>
     <n v="3550"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="352"/>
     <s v="Serviço"/>
     <n v="3585"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="353"/>
     <s v="Serviço"/>
     <n v="3620"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="354"/>
     <s v="Hospedagem"/>
     <n v="3655"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="355"/>
     <s v="Hospedagem"/>
     <n v="3690"/>
     <s v="Priscila"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="356"/>
     <s v="Hospedagem"/>
     <n v="3725"/>
     <s v="Carlos"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="357"/>
     <s v="Serviço"/>
     <n v="3760"/>
     <s v="Letícia"/>
-    <s v="Finalizada"/>
-  </r>
-  <r>
-    <d v="2018-12-29T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="358"/>
     <s v="Serviço"/>
     <n v="3795"/>
     <s v="Patrícia"/>
-    <s v="Cotação"/>
-  </r>
-  <r>
-    <d v="2018-12-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="359"/>
     <s v="Hospedagem"/>
     <n v="3830"/>
     <s v="Patrícia"/>
-    <s v="Finalizada"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField numFmtId="14" showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:N9" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" numFmtId="14" showAll="0">
+      <items count="361">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="3">
+    <field x="6"/>
+    <field x="5"/>
+    <field x="0"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Total" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13839,107 +15421,928 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A3:C20"/>
+  <dimension ref="A3:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="12" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="12" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="12" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="12" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="12" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="12" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="12" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="12" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="12" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="12" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="12" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="12" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="12" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="12" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="12" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="12" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="12" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="12" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="12" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="12" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="12" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="12" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="12" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="12" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="12" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="12" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="12" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="12" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="11" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="11" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="11" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="11" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="11" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="11" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="11" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="11" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="11" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="11" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="11" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="11" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="11" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="11" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="11" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="11" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="11" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="11" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="11" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="11" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="11" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="11" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="11" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="11" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="11" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="11" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="11" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="11" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="11" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="11" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="11" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="9" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="12" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="12" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="12" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="12" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="12" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="12" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="12" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="12" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="12" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="12" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="12" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="12" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="12" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="12" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="12" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="12" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="12" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="12" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="12" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="12" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="12" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="12" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="12" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="12" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="12" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="12" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="12" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="12" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="12" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="12" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="673" max="673" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="674" max="674" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="676" max="676" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="677" max="677" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="679" max="679" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="680" max="680" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="682" max="682" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="683" max="683" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="685" max="685" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="686" max="686" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="688" max="688" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="689" max="689" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="691" max="691" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="692" max="692" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="694" max="694" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="695" max="695" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="697" max="697" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="698" max="698" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="700" max="700" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="701" max="701" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="703" max="703" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="704" max="704" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="706" max="706" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="707" max="707" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="709" max="709" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="710" max="710" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="712" max="712" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="713" max="713" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="715" max="715" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="716" max="716" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="718" max="718" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="719" max="719" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="721" max="721" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="722" max="722" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="724" max="724" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="725" max="725" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="727" max="727" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="728" max="728" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="730" max="730" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="731" max="731" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="9" bestFit="1" customWidth="1"/>
+    <col min="733" max="733" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
+        <v>22650</v>
+      </c>
+      <c r="C7" s="16">
+        <v>31840</v>
+      </c>
+      <c r="D7" s="16">
+        <v>24415</v>
+      </c>
+      <c r="E7" s="16">
+        <v>35670</v>
+      </c>
+      <c r="F7" s="16">
+        <v>27270</v>
+      </c>
+      <c r="G7" s="16">
+        <v>39870</v>
+      </c>
+      <c r="H7" s="16">
+        <v>22650</v>
+      </c>
+      <c r="I7" s="16">
+        <v>31840</v>
+      </c>
+      <c r="J7" s="16">
+        <v>24415</v>
+      </c>
+      <c r="K7" s="16">
+        <v>35670</v>
+      </c>
+      <c r="L7" s="16">
+        <v>27270</v>
+      </c>
+      <c r="M7" s="16">
+        <v>39870</v>
+      </c>
+      <c r="N7" s="16">
+        <v>363430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16">
+        <v>49338</v>
+      </c>
+      <c r="C8" s="16">
+        <v>57453</v>
+      </c>
+      <c r="D8" s="16">
+        <v>99989</v>
+      </c>
+      <c r="E8" s="16">
+        <v>110906</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42635</v>
+      </c>
+      <c r="G8" s="16">
+        <v>59805</v>
+      </c>
+      <c r="H8" s="16">
+        <v>49338</v>
+      </c>
+      <c r="I8" s="16">
+        <v>57453</v>
+      </c>
+      <c r="J8" s="16">
+        <v>99989</v>
+      </c>
+      <c r="K8" s="16">
+        <v>110906</v>
+      </c>
+      <c r="L8" s="16">
+        <v>42635</v>
+      </c>
+      <c r="M8" s="16">
+        <v>59805</v>
+      </c>
+      <c r="N8" s="16">
+        <v>840252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16">
+        <v>71988</v>
+      </c>
+      <c r="C9" s="16">
+        <v>89293</v>
+      </c>
+      <c r="D9" s="16">
+        <v>124404</v>
+      </c>
+      <c r="E9" s="16">
+        <v>146576</v>
+      </c>
+      <c r="F9" s="16">
+        <v>69905</v>
+      </c>
+      <c r="G9" s="16">
+        <v>99675</v>
+      </c>
+      <c r="H9" s="16">
+        <v>71988</v>
+      </c>
+      <c r="I9" s="16">
+        <v>89293</v>
+      </c>
+      <c r="J9" s="16">
+        <v>124404</v>
+      </c>
+      <c r="K9" s="16">
+        <v>146576</v>
+      </c>
+      <c r="L9" s="16">
+        <v>69905</v>
+      </c>
+      <c r="M9" s="16">
+        <v>99675</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1203682</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -13951,14 +16354,55 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="6" customHeight="1"/>
+    <row r="2" spans="2:2" ht="21" customHeight="1">
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="21" customHeight="1">
+      <c r="B3" s="17">
+        <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3)</f>
+        <v>1203682</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="5" spans="2:2" ht="21" customHeight="1">
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="21.75" customHeight="1">
+      <c r="B6" s="20">
+        <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3,"Status","Finalizada")</f>
+        <v>840252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="4.5" customHeight="1"/>
+    <row r="8" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="21" customHeight="1">
+      <c r="B9" s="21">
+        <f>IFERROR(B6/B3,0)</f>
+        <v>0.69806809439702511</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dashboards_I.xlsx
+++ b/dashboards_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/01. Dashboard 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F1F86F2-6B65-4DF0-8FF8-46E270E846F9}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE45C377-5DB0-4CC6-9D80-7F6280E81051}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -27,13 +27,22 @@
   <definedNames>
     <definedName name="hoteis_smart_lucro_liquido">'[1]Hotéis Smart'!$C$3:$C$9</definedName>
     <definedName name="RegrasProch">'[2]PROCV e PROCH'!$I$12:$L$13</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
     <definedName name="taxaComissao2">'[3]Nomes de Intervalos'!$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -301,14 +310,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +325,10 @@
     <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -3208,6 +3217,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF0561E-8BC7-1D8B-66AB-47A8B028B870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3819525" y="1285876"/>
+              <a:ext cx="1019175" cy="1524000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Vendedor 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B563DEDC-DA21-4146-81B2-4CE3BB3AA14B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="123825" y="1857375"/>
+              <a:ext cx="1428750" cy="1524000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3746,7 +3921,12 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1345" maxValue="9845"/>
     </cacheField>
     <cacheField name="Vendedor" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="Priscila"/>
+        <s v="Carlos"/>
+        <s v="Letícia"/>
+        <s v="Patrícia"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="44">
       <sharedItems count="2">
@@ -4153,7 +4333,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2052728548"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -4165,2877 +4345,2877 @@
     <x v="0"/>
     <s v="Hospedagem"/>
     <n v="1345"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Hospedagem"/>
     <n v="3475"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Serviço"/>
     <n v="1450"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Serviço"/>
     <n v="1485"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Serviço"/>
     <n v="2400"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Hospedagem"/>
     <n v="1520"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <s v="Serviço"/>
     <n v="1625"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Serviço"/>
     <n v="1660"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Hospedagem"/>
     <n v="1695"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Serviço"/>
     <n v="1800"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Hospedagem"/>
     <n v="5798"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Hospedagem"/>
     <n v="1870"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Serviço"/>
     <n v="2345"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Serviço"/>
     <n v="1975"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Hospedagem"/>
     <n v="2045"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="23"/>
     <s v="Serviço"/>
     <n v="2150"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="24"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Hospedagem"/>
     <n v="2220"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="26"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="27"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="28"/>
     <s v="Serviço"/>
     <n v="2325"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="29"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Hospedagem"/>
     <n v="2395"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="31"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Serviço"/>
     <n v="2500"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="34"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Hospedagem"/>
     <n v="2570"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="36"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Serviço"/>
     <n v="2675"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="40"/>
     <s v="Hospedagem"/>
     <n v="2745"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="42"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Serviço"/>
     <n v="2850"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="45"/>
     <s v="Hospedagem"/>
     <n v="2920"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="46"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Serviço"/>
     <n v="3025"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Hospedagem"/>
     <n v="3095"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="51"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="52"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="53"/>
     <s v="Serviço"/>
     <n v="3200"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="54"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="54"/>
     <s v="Serviço"/>
     <n v="2345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="55"/>
     <s v="Hospedagem"/>
     <n v="3270"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="56"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="57"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="58"/>
     <s v="Serviço"/>
     <n v="3375"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="59"/>
     <s v="Serviço"/>
     <n v="1345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="60"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="61"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
     <s v="Hospedagem"/>
     <n v="1450"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="62"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
     <s v="Hospedagem"/>
     <n v="4983"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
     <s v="Hospedagem"/>
     <n v="9845"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
     <s v="Hospedagem"/>
     <n v="7895"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="63"/>
     <s v="Serviço"/>
     <n v="1485"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="64"/>
     <s v="Serviço"/>
     <n v="1520"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="65"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="66"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="67"/>
     <s v="Hospedagem"/>
     <n v="1625"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="68"/>
     <s v="Serviço"/>
     <n v="1660"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Serviço"/>
     <n v="1695"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Hospedagem"/>
     <n v="9567"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
     <s v="Hospedagem"/>
     <n v="4567"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="70"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="71"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="72"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="73"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="74"/>
     <s v="Serviço"/>
     <n v="1870"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="75"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="76"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="77"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="78"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="79"/>
     <s v="Serviço"/>
     <n v="2045"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="80"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="81"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="82"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="83"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="84"/>
     <s v="Serviço"/>
     <n v="2220"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="85"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="86"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="87"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="88"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="89"/>
     <s v="Serviço"/>
     <n v="2395"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="90"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="91"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="92"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="93"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="94"/>
     <s v="Serviço"/>
     <n v="2570"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="8967"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="7896"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="6543"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="96"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="97"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="98"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="99"/>
     <s v="Serviço"/>
     <n v="2745"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="100"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="101"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="102"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="103"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="104"/>
     <s v="Serviço"/>
     <n v="2920"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="105"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="106"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="107"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="108"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
     <s v="Serviço"/>
     <n v="3095"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="109"/>
     <s v="Serviço"/>
     <n v="3456"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
     <s v="Serviço"/>
     <n v="4567"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
     <s v="Serviço"/>
     <n v="5345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
     <s v="Serviço"/>
     <n v="3456"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="110"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="111"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="112"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="113"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="114"/>
     <s v="Serviço"/>
     <n v="3270"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="115"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="116"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="117"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="118"/>
     <s v="Serviço"/>
     <n v="3410"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="119"/>
     <s v="Serviço"/>
     <n v="3445"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="120"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="121"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="122"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="123"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="124"/>
     <s v="Serviço"/>
     <n v="1870"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="125"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="126"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="127"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="128"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="129"/>
     <s v="Serviço"/>
     <n v="2045"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="130"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="131"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="132"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="133"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="134"/>
     <s v="Serviço"/>
     <n v="2220"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="135"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="136"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="137"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="138"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="139"/>
     <s v="Serviço"/>
     <n v="2395"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="140"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="141"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="142"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="143"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="144"/>
     <s v="Serviço"/>
     <n v="2570"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="145"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="146"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="147"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="148"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="149"/>
     <s v="Serviço"/>
     <n v="2745"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="150"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="151"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="152"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="153"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="154"/>
     <s v="Serviço"/>
     <n v="2920"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="155"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="156"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="157"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="158"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="159"/>
     <s v="Serviço"/>
     <n v="3095"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="160"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="161"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="162"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="163"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="164"/>
     <s v="Serviço"/>
     <n v="3270"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="165"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="166"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="167"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="168"/>
     <s v="Serviço"/>
     <n v="3410"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="169"/>
     <s v="Serviço"/>
     <n v="3445"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="170"/>
     <s v="Hospedagem"/>
     <n v="3480"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="171"/>
     <s v="Hospedagem"/>
     <n v="3515"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="172"/>
     <s v="Hospedagem"/>
     <n v="3550"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="173"/>
     <s v="Serviço"/>
     <n v="3585"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="174"/>
     <s v="Serviço"/>
     <n v="3620"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="175"/>
     <s v="Hospedagem"/>
     <n v="3655"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="176"/>
     <s v="Hospedagem"/>
     <n v="3690"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="177"/>
     <s v="Hospedagem"/>
     <n v="3725"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="178"/>
     <s v="Serviço"/>
     <n v="3760"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="179"/>
     <s v="Serviço"/>
     <n v="3795"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="180"/>
     <s v="Hospedagem"/>
     <n v="3830"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="181"/>
     <s v="Hospedagem"/>
     <n v="1345"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="182"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="183"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="183"/>
     <s v="Hospedagem"/>
     <n v="3475"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="184"/>
     <s v="Serviço"/>
     <n v="1450"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="185"/>
     <s v="Serviço"/>
     <n v="1485"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="185"/>
     <s v="Serviço"/>
     <n v="2400"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="186"/>
     <s v="Hospedagem"/>
     <n v="1520"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="187"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="188"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="189"/>
     <s v="Serviço"/>
     <n v="1625"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="190"/>
     <s v="Serviço"/>
     <n v="1660"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="191"/>
     <s v="Hospedagem"/>
     <n v="1695"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="192"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="193"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="194"/>
     <s v="Serviço"/>
     <n v="1800"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="195"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="195"/>
     <s v="Hospedagem"/>
     <n v="5798"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="196"/>
     <s v="Hospedagem"/>
     <n v="1870"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="197"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="197"/>
     <s v="Serviço"/>
     <n v="2345"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="198"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="199"/>
     <s v="Serviço"/>
     <n v="1975"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="200"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="201"/>
     <s v="Hospedagem"/>
     <n v="2045"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="202"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="203"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="204"/>
     <s v="Serviço"/>
     <n v="2150"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="205"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="206"/>
     <s v="Hospedagem"/>
     <n v="2220"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="207"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="208"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="209"/>
     <s v="Serviço"/>
     <n v="2325"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="210"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="211"/>
     <s v="Hospedagem"/>
     <n v="2395"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="212"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="213"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="214"/>
     <s v="Serviço"/>
     <n v="2500"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="215"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="216"/>
     <s v="Hospedagem"/>
     <n v="2570"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="217"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="218"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="218"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="219"/>
     <s v="Serviço"/>
     <n v="2675"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="220"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="221"/>
     <s v="Hospedagem"/>
     <n v="2745"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="222"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="223"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="224"/>
     <s v="Serviço"/>
     <n v="2850"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="225"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="226"/>
     <s v="Hospedagem"/>
     <n v="2920"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="227"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="228"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="229"/>
     <s v="Serviço"/>
     <n v="3025"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="230"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="231"/>
     <s v="Hospedagem"/>
     <n v="3095"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="232"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="233"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="234"/>
     <s v="Serviço"/>
     <n v="3200"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="235"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="235"/>
     <s v="Serviço"/>
     <n v="2345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="236"/>
     <s v="Hospedagem"/>
     <n v="3270"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="237"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="238"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="239"/>
     <s v="Serviço"/>
     <n v="3375"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="240"/>
     <s v="Serviço"/>
     <n v="1345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="241"/>
     <s v="Hospedagem"/>
     <n v="1380"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="242"/>
     <s v="Hospedagem"/>
     <n v="1415"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
     <s v="Hospedagem"/>
     <n v="1450"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="243"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
     <s v="Hospedagem"/>
     <n v="4983"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
     <s v="Hospedagem"/>
     <n v="9845"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
     <s v="Hospedagem"/>
     <n v="7895"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="244"/>
     <s v="Serviço"/>
     <n v="1485"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="245"/>
     <s v="Serviço"/>
     <n v="1520"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="246"/>
     <s v="Hospedagem"/>
     <n v="1555"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="247"/>
     <s v="Hospedagem"/>
     <n v="1590"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="248"/>
     <s v="Hospedagem"/>
     <n v="1625"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="249"/>
     <s v="Serviço"/>
     <n v="1660"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Serviço"/>
     <n v="1695"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Hospedagem"/>
     <n v="9567"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Hospedagem"/>
     <n v="5678"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
     <s v="Hospedagem"/>
     <n v="4567"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="251"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="252"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="253"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="254"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="255"/>
     <s v="Serviço"/>
     <n v="1870"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="256"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="257"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="258"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="259"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="260"/>
     <s v="Serviço"/>
     <n v="2045"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="261"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="262"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="263"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="264"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="265"/>
     <s v="Serviço"/>
     <n v="2220"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="266"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="267"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="268"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="269"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="269"/>
     <s v="Serviço"/>
     <n v="2395"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="270"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="271"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="272"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="273"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="274"/>
     <s v="Serviço"/>
     <n v="2570"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="8967"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="7896"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="6543"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="8765"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
     <s v="Hospedagem"/>
     <n v="9456"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="276"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="277"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="278"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="279"/>
     <s v="Serviço"/>
     <n v="2745"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="280"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="281"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="282"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="283"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="284"/>
     <s v="Serviço"/>
     <n v="2920"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="285"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="286"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="287"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="288"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
     <s v="Serviço"/>
     <n v="3095"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="289"/>
     <s v="Serviço"/>
     <n v="3456"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
     <s v="Serviço"/>
     <n v="4567"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
     <s v="Serviço"/>
     <n v="5345"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
     <s v="Serviço"/>
     <n v="3456"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="290"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="291"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="292"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="293"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="294"/>
     <s v="Serviço"/>
     <n v="3270"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="295"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="296"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="297"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="298"/>
     <s v="Serviço"/>
     <n v="3410"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="299"/>
     <s v="Serviço"/>
     <n v="3445"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="300"/>
     <s v="Hospedagem"/>
     <n v="1730"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="301"/>
     <s v="Hospedagem"/>
     <n v="1765"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="302"/>
     <s v="Hospedagem"/>
     <n v="1800"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="303"/>
     <s v="Serviço"/>
     <n v="1835"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="304"/>
     <s v="Serviço"/>
     <n v="1870"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="305"/>
     <s v="Hospedagem"/>
     <n v="1905"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="306"/>
     <s v="Hospedagem"/>
     <n v="1940"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="307"/>
     <s v="Hospedagem"/>
     <n v="1975"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="308"/>
     <s v="Serviço"/>
     <n v="2010"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="309"/>
     <s v="Serviço"/>
     <n v="2045"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="310"/>
     <s v="Hospedagem"/>
     <n v="2080"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="311"/>
     <s v="Hospedagem"/>
     <n v="2115"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="312"/>
     <s v="Hospedagem"/>
     <n v="2150"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="313"/>
     <s v="Serviço"/>
     <n v="2185"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <s v="Serviço"/>
     <n v="2220"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="315"/>
     <s v="Hospedagem"/>
     <n v="2255"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <s v="Hospedagem"/>
     <n v="2290"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="317"/>
     <s v="Hospedagem"/>
     <n v="2325"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="318"/>
     <s v="Serviço"/>
     <n v="2360"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <s v="Serviço"/>
     <n v="2395"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="320"/>
     <s v="Hospedagem"/>
     <n v="2430"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="321"/>
     <s v="Hospedagem"/>
     <n v="2465"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="322"/>
     <s v="Hospedagem"/>
     <n v="2500"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="323"/>
     <s v="Serviço"/>
     <n v="2535"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <s v="Serviço"/>
     <n v="2570"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="325"/>
     <s v="Hospedagem"/>
     <n v="2605"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <s v="Hospedagem"/>
     <n v="2640"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <s v="Hospedagem"/>
     <n v="2675"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="328"/>
     <s v="Serviço"/>
     <n v="2710"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <s v="Serviço"/>
     <n v="2745"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="329"/>
     <s v="Hospedagem"/>
     <n v="2780"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <s v="Hospedagem"/>
     <n v="2815"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <s v="Hospedagem"/>
     <n v="2850"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="332"/>
     <s v="Serviço"/>
     <n v="2885"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <s v="Serviço"/>
     <n v="2920"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="334"/>
     <s v="Hospedagem"/>
     <n v="2955"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="335"/>
     <s v="Hospedagem"/>
     <n v="2990"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="336"/>
     <s v="Hospedagem"/>
     <n v="3025"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="337"/>
     <s v="Serviço"/>
     <n v="3060"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="338"/>
     <s v="Serviço"/>
     <n v="3095"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="339"/>
     <s v="Hospedagem"/>
     <n v="3130"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="340"/>
     <s v="Hospedagem"/>
     <n v="3165"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="341"/>
     <s v="Hospedagem"/>
     <n v="3200"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="342"/>
     <s v="Serviço"/>
     <n v="3235"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="343"/>
     <s v="Serviço"/>
     <n v="3270"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="344"/>
     <s v="Hospedagem"/>
     <n v="3305"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="345"/>
     <s v="Hospedagem"/>
     <n v="3340"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="346"/>
     <s v="Hospedagem"/>
     <n v="3375"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="347"/>
     <s v="Serviço"/>
     <n v="3410"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="348"/>
     <s v="Serviço"/>
     <n v="3445"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="349"/>
     <s v="Hospedagem"/>
     <n v="3480"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="350"/>
     <s v="Hospedagem"/>
     <n v="3515"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="351"/>
     <s v="Hospedagem"/>
     <n v="3550"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="352"/>
     <s v="Serviço"/>
     <n v="3585"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="353"/>
     <s v="Serviço"/>
     <n v="3620"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="354"/>
     <s v="Hospedagem"/>
     <n v="3655"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="355"/>
     <s v="Hospedagem"/>
     <n v="3690"/>
-    <s v="Priscila"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="356"/>
     <s v="Hospedagem"/>
     <n v="3725"/>
-    <s v="Carlos"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="357"/>
     <s v="Serviço"/>
     <n v="3760"/>
-    <s v="Letícia"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="358"/>
     <s v="Serviço"/>
     <n v="3795"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="359"/>
     <s v="Hospedagem"/>
     <n v="3830"/>
-    <s v="Patrícia"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N9" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -7405,7 +7585,15 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
@@ -7881,6 +8069,36 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{781DFC0F-A422-4A25-ACCD-45DE35049F40}" sourceName="Vendedor">
+  <pivotTables>
+    <pivotTable tabId="10" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2052728548">
+      <items count="4">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor" xr10:uid="{FF0C0048-1D12-4C4B-8F81-A840B40D0315}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor 1" xr10:uid="{304EFDFA-2C39-48D4-8C57-7C75BE810348}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7203CBA3-2462-4655-BF37-85939DE5172B}" name="Reservas" displayName="Reservas" ref="A2:E412">
   <autoFilter ref="A2:E412" xr:uid="{3C62A2CF-B0C6-4349-86CC-B9116E1F7234}"/>
@@ -8215,16 +8433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -8325,7 +8543,7 @@
   </sheetPr>
   <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8340,13 +8558,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -15389,23 +15607,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16159,10 +16377,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16208,144 +16426,152 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="21">
         <v>22650</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="21">
         <v>31840</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="21">
         <v>24415</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="21">
         <v>35670</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="21">
         <v>27270</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="21">
         <v>39870</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="21">
         <v>22650</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="21">
         <v>31840</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="21">
         <v>24415</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="21">
         <v>35670</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="21">
         <v>27270</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="21">
         <v>39870</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="21">
         <v>363430</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21">
         <v>49338</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="21">
         <v>57453</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="21">
         <v>99989</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="21">
         <v>110906</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="21">
         <v>42635</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="21">
         <v>59805</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="21">
         <v>49338</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="21">
         <v>57453</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="21">
         <v>99989</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="21">
         <v>110906</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="21">
         <v>42635</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="21">
         <v>59805</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="21">
         <v>840252</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="21">
         <v>71988</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="21">
         <v>89293</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="21">
         <v>124404</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="21">
         <v>146576</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="21">
         <v>69905</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="21">
         <v>99675</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="21">
         <v>71988</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="21">
         <v>89293</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="21">
         <v>124404</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="21">
         <v>146576</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="21">
         <v>69905</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="21">
         <v>99675</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="21">
         <v>1203682</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16357,7 +16583,7 @@
   <dimension ref="B1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16368,36 +16594,36 @@
   <sheetData>
     <row r="1" spans="2:2" ht="6" customHeight="1"/>
     <row r="2" spans="2:2" ht="21" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="21" customHeight="1">
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3)</f>
         <v>1203682</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="4.5" customHeight="1"/>
     <row r="5" spans="2:2" ht="21" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="21.75" customHeight="1">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3,"Status","Finalizada")</f>
         <v>840252</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="4.5" customHeight="1"/>
     <row r="8" spans="2:2" ht="19.5" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="21" customHeight="1">
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <f>IFERROR(B6/B3,0)</f>
         <v>0.69806809439702511</v>
       </c>
@@ -16405,5 +16631,13 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/dashboards_I.xlsx
+++ b/dashboards_I.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/01. Dashboard 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE45C377-5DB0-4CC6-9D80-7F6280E81051}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{0037237E-C88C-490F-B439-0A763663B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EA0DED-244F-452E-94FD-1A4385E36D82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -26,6 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="hoteis_smart_lucro_liquido">'[1]Hotéis Smart'!$C$3:$C$9</definedName>
+    <definedName name="NativeTimeline_Data">#N/A</definedName>
     <definedName name="RegrasProch">'[2]PROCV e PROCH'!$I$12:$L$13</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
     <definedName name="taxaComissao2">'[3]Nomes de Intervalos'!$G$4</definedName>
@@ -42,6 +43,11 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId11"/>
+      </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="45">
   <si>
     <t>Priscila</t>
   </si>
@@ -186,6 +192,18 @@
   <si>
     <t>Taxa de Conversão</t>
   </si>
+  <si>
+    <t>Vendas x Cotação</t>
+  </si>
+  <si>
+    <t>Peso Vde %</t>
+  </si>
+  <si>
+    <t>Tipo Hospedagem</t>
+  </si>
+  <si>
+    <t>Linha do tempo</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +255,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +297,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +318,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,14 +368,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -396,8 +456,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Seletores" pivot="0" table="0" count="4" xr9:uid="{E1243ECD-0DC6-41CA-9F93-06C8CF1A6513}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -448,6 +508,2850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"Vendas"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dinamica!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>49338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB3E-44F8-BEDA-9AE100646648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"Cotações"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dinamica!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31840</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35670</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB3E-44F8-BEDA-9AE100646648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1392597440"/>
+        <c:axId val="1787265136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1392597440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787265136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1787265136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0_);_(&quot;R$&quot;* \(#,##0\);_(&quot;R$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392597440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1963947902738571E-2"/>
+          <c:y val="4.5383530637595759E-2"/>
+          <c:w val="0.57590055959986131"/>
+          <c:h val="0.88471653247623494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"Vendas"</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dinamica!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Patrícia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Priscila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dinamica!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>315548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDEE-47FB-A9F0-4E494042E7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71735353835487559"/>
+          <c:y val="0.27004624898740953"/>
+          <c:w val="0.24126467455166431"/>
+          <c:h val="0.52174262338084432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dashboards_I.xlsx]Dinamica!Tabela dinâmica3</c:name>
+    <c:fmtId val="21"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dinamica!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DB10-497A-BB40-E28FF32692AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dinamica!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hospedagem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serviço</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dinamica!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>789904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB10-497A-BB40-E28FF32692AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1639858928"/>
+        <c:axId val="1568638368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1639858928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568638368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1568638368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0_);_(&quot;R$&quot;* \(#,##0\);_(&quot;R$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639858928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3221,16 +6125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3266,7 +6170,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3819525" y="1285876"/>
+              <a:off x="14068425" y="85726"/>
               <a:ext cx="1019175" cy="1524000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3297,6 +6201,83 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Data">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D087A508-962E-B6BB-B880-E7503AE82787}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Data"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3286125" y="1914525"/>
+              <a:ext cx="3333750" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Linha do tempo: Funciona em Excel 2013 ou superior. Não mover ou redimensionar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3304,15 +6285,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>1457324</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3349,8 +6330,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="123825" y="1857375"/>
-              <a:ext cx="1428750" cy="1524000"/>
+              <a:off x="95249" y="2352674"/>
+              <a:ext cx="1457325" cy="1485901"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3372,6 +6353,193 @@
                 <a:rPr lang="pt-BR" sz="1100"/>
                 <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
 \Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A794F111-045B-9AC2-1B7C-B0175D836AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A2BCE2-69A3-A6EC-21FD-71893FAFC4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD4106E-C274-4F7F-9F77-98B37E9B3949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Data 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49251D05-659F-462F-8848-F1AB4E7636E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Data 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7334250" y="2343150"/>
+              <a:ext cx="2381250" cy="1524000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Linha do tempo: Funciona em Excel 2013 ou superior. Não mover ou redimensionar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3915,7 +7083,10 @@
       <fieldGroup par="6"/>
     </cacheField>
     <cacheField name="Tipo Reserva" numFmtId="1">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Hospedagem"/>
+        <s v="Serviço"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Valor Total" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1345" maxValue="9845"/>
@@ -4343,2870 +7514,2870 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="410">
   <r>
     <x v="0"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1345"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1380"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1415"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3475"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1450"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1485"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2400"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1520"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1555"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1590"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1625"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1660"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1695"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="11"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="12"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1800"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="14"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="14"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5798"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1870"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2345"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1975"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="19"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2045"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="21"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="22"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="23"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2150"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2220"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="27"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="28"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2325"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="29"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="30"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2395"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="32"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="33"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2500"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="34"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="35"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2570"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="37"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="37"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="38"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2675"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="39"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="40"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2745"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="41"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="42"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="43"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2850"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="44"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="45"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2920"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="46"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="47"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="48"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3025"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="49"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="50"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3095"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="51"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="52"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="53"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3200"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="54"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="54"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2345"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="55"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3270"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="56"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="57"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="58"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3375"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="59"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1345"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="60"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1380"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="61"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1415"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1450"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="62"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="4983"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9845"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="62"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="7895"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="63"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1485"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="64"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1520"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="65"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1555"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="66"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1590"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="67"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1625"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="68"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1660"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1695"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9567"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8765"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9456"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="69"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="4567"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="70"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="71"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="72"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1800"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="73"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="74"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1870"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="75"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="76"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="77"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1975"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="78"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="79"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2045"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="80"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="81"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="82"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2150"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="83"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="84"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2220"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="85"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="86"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="87"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2325"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="88"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="89"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2395"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="90"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="91"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="92"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2500"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="93"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="94"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2570"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8967"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="7896"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="6543"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8765"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="95"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9456"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="96"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="97"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2675"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="98"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="99"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2745"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="100"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="101"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="102"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2850"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="103"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="104"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2920"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="105"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="106"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="107"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3025"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="108"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3095"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="109"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3456"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="4567"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="5345"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="109"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3456"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="110"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="111"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="112"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3200"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="113"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="114"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3270"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="115"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="116"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="117"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3375"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="118"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3410"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="119"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3445"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="120"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="121"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="122"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1800"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="123"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="124"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1870"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="125"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="126"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="127"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1975"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="128"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="129"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2045"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="130"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="131"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="132"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2150"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="133"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="134"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2220"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="135"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="136"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="137"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2325"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="138"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="139"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2395"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="140"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="141"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="142"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2500"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="143"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="144"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2570"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="145"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="146"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="147"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2675"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="148"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="149"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2745"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="150"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="151"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="152"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2850"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="153"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="154"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2920"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="155"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="156"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="157"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3025"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="158"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="159"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3095"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="160"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="161"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="162"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3200"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="163"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="164"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3270"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="165"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="166"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="167"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3375"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="168"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3410"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="169"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3445"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="170"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3480"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="171"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3515"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="172"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3550"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="173"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3585"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="174"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3620"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="175"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3655"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="176"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3690"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="177"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3725"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="178"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3760"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="179"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3795"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="180"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3830"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="181"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1345"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="182"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1380"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="183"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1415"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="183"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3475"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="184"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1450"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="185"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1485"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="185"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2400"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="186"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1520"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="187"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1555"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="188"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1590"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="189"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1625"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="190"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1660"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="191"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1695"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="192"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="193"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="194"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1800"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="195"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="195"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5798"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="196"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1870"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="197"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="197"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2345"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="198"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="199"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1975"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="200"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="201"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2045"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="202"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="203"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="204"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2150"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="205"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="206"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2220"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="207"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="208"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="209"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2325"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="210"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="211"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2395"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="212"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="213"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="214"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2500"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="215"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="216"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2570"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="217"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="218"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="218"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="219"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2675"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="220"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="221"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2745"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="222"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="223"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="224"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2850"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="225"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="226"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2920"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="227"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="228"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="229"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3025"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="230"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="231"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3095"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="232"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="233"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="234"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3200"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="235"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="235"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2345"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="236"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3270"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="237"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="238"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="239"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3375"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="240"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1345"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="241"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1380"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="242"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1415"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1450"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="243"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="4983"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9845"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="243"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="7895"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="244"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1485"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="245"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1520"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="246"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1555"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="247"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1590"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="248"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1625"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="249"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1660"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1695"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9567"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="5678"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8765"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9456"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="250"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="4567"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="251"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="252"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="253"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1800"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="254"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="255"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1870"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="256"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="257"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="258"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1975"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="259"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="260"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2045"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="261"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="262"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="263"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2150"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="264"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="265"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2220"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="266"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="267"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="268"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2325"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="269"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="269"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2395"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="270"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="271"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="272"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2500"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="273"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="274"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2570"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8967"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="7896"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="6543"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="8765"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="275"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="9456"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="276"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="277"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2675"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="278"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="279"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2745"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="280"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="281"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="282"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2850"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="283"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="284"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2920"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="285"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="286"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="287"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3025"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="288"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3095"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="289"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3456"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="4567"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="5345"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="289"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3456"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="290"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="291"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="292"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3200"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="293"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="294"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3270"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="295"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="296"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="297"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3375"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="298"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3410"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="299"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3445"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="300"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1730"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="301"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1765"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="302"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1800"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="303"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1835"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="304"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="1870"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="305"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1905"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="306"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1940"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="307"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="1975"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="308"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2010"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="309"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2045"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="310"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2080"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="311"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2115"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="312"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2150"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="313"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2185"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2220"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="315"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2255"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2290"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="317"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2325"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="318"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2360"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2395"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="320"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2430"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="321"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2465"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="322"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2500"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="323"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2535"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2570"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="325"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2605"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2640"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2675"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="328"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2710"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2745"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="329"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2780"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2815"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2850"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="332"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2885"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="2920"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="334"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2955"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="335"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="2990"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="336"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3025"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="337"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3060"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="338"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3095"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="339"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3130"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="340"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3165"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="341"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3200"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="342"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3235"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="343"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3270"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="344"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3305"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="345"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3340"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="346"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3375"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="347"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3410"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="348"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3445"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="349"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3480"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="350"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3515"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="351"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3550"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="352"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3585"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="353"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3620"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="354"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3655"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="355"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3690"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="356"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3725"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="357"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3760"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="358"/>
-    <s v="Serviço"/>
+    <x v="1"/>
     <n v="3795"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="359"/>
-    <s v="Hospedagem"/>
+    <x v="0"/>
     <n v="3830"/>
     <x v="3"/>
     <x v="0"/>
@@ -7215,7 +10386,1679 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9579DEE-0204-406B-AE37-0EE41C73C059}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="A19:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="361">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Total" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="8" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F9954C6-9FEC-4EA7-92EE-0CE581EBDE4E}" name="totalVde" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A12:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="361">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Total" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B34B53A-E713-4624-BB96-F06A567D3CBC}" name="reservaCotacoes" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:N9" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -8055,9 +12898,31 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Valor Total" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Valor Total" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="40" name="Data">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -8072,7 +12937,9 @@
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{781DFC0F-A422-4A25-ACCD-45DE35049F40}" sourceName="Vendedor">
   <pivotTables>
-    <pivotTable tabId="10" name="Tabela dinâmica1"/>
+    <pivotTable tabId="10" name="reservaCotacoes"/>
+    <pivotTable tabId="10" name="totalVde"/>
+    <pivotTable tabId="10" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="2052728548">
@@ -8095,7 +12962,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Vendedor 1" xr10:uid="{304EFDFA-2C39-48D4-8C57-7C75BE810348}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="241300"/>
+  <slicer name="Vendedor 1" xr10:uid="{304EFDFA-2C39-48D4-8C57-7C75BE810348}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -8103,11 +12970,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7203CBA3-2462-4655-BF37-85939DE5172B}" name="Reservas" displayName="Reservas" ref="A2:E412">
   <autoFilter ref="A2:E412" xr:uid="{3C62A2CF-B0C6-4349-86CC-B9116E1F7234}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F795160C-B162-4185-BC82-75CB0DC72F4D}" name="Data" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{476063AC-9577-4FAC-983E-C5FAF6BF7558}" name="Tipo Reserva" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7F8DBAE5-D457-4B1B-9327-BCD05E2608BF}" name="Valor Total" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E9BA0D40-E6FB-49CF-AA1A-49B5F9D65AED}" name="Vendedor" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{2D7B0562-F5C2-4C2F-9390-E6F85DD75D17}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F795160C-B162-4185-BC82-75CB0DC72F4D}" name="Data" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{476063AC-9577-4FAC-983E-C5FAF6BF7558}" name="Tipo Reserva" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7F8DBAE5-D457-4B1B-9327-BCD05E2608BF}" name="Valor Total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E9BA0D40-E6FB-49CF-AA1A-49B5F9D65AED}" name="Vendedor" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2D7B0562-F5C2-4C2F-9390-E6F85DD75D17}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8408,6 +13275,30 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Data" xr10:uid="{E3AB6A5A-E7E0-4281-A914-8C4C7154F173}" sourceName="Data">
+  <pivotTables>
+    <pivotTable tabId="10" name="reservaCotacoes"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="2052728548" filterType="dateBetween">
+    <selection startDate="2018-01-01T00:00:00" endDate="2018-12-31T00:00:00"/>
+    <bounds startDate="2018-01-01T00:00:00" endDate="2019-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Data" xr10:uid="{ABF5E5E7-B64F-4B6B-B797-2CF21DAAAB08}" cache="NativeTimeline_Data" caption="Data" level="2" selectionLevel="0" scrollPosition="2018-01-01T00:00:00"/>
+</timelines>
+</file>
+
+<file path=xl/timelines/timeline2.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Data 1" xr10:uid="{C6EC81D8-3150-47EE-ADBF-E062E79B7F97}" cache="NativeTimeline_Data" caption="Data" level="2" selectionLevel="0" scrollPosition="2018-07-26T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC01499-F364-45D8-8F91-C757F27582FB}">
   <sheetPr>
@@ -15639,370 +20530,34 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A3:N9"/>
+  <dimension ref="A3:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="12" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="12" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="12" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="12" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="12" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="12" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="12" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="12" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="12" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="12" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="12" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="12" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="12" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="12" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="12" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="12" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="12" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="12" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="12" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="12" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="12" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="12" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="12" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="12" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="12" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="12" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="12" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="12" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="60" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="91" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="121" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="152" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="182" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="213" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="241" width="7" bestFit="1" customWidth="1"/>
+    <col min="242" max="271" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="272" max="301" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="331" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="332" max="361" width="7" bestFit="1" customWidth="1"/>
     <col min="362" max="362" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="363" max="363" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="364" max="364" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -16434,43 +20989,43 @@
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="10">
         <v>22650</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="10">
         <v>31840</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="10">
         <v>24415</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="10">
         <v>35670</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="10">
         <v>27270</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="10">
         <v>39870</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="10">
         <v>22650</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="10">
         <v>31840</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="10">
         <v>24415</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="10">
         <v>35670</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="10">
         <v>27270</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="10">
         <v>39870</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="10">
         <v>363430</v>
       </c>
     </row>
@@ -16478,43 +21033,43 @@
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="10">
         <v>49338</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="10">
         <v>57453</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="10">
         <v>99989</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <v>110906</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="10">
         <v>42635</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="10">
         <v>59805</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="10">
         <v>49338</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="10">
         <v>57453</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="10">
         <v>99989</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="10">
         <v>110906</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="10">
         <v>42635</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="10">
         <v>59805</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="10">
         <v>840252</v>
       </c>
     </row>
@@ -16522,54 +21077,134 @@
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="10">
         <v>71988</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="10">
         <v>89293</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="10">
         <v>124404</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="10">
         <v>146576</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="10">
         <v>69905</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="10">
         <v>99675</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="10">
         <v>71988</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="10">
         <v>89293</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="10">
         <v>124404</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="10">
         <v>146576</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="10">
         <v>69905</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="10">
         <v>99675</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="10">
         <v>1203682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>315548</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10">
+        <v>263374</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10">
+        <v>300010</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10">
+        <v>324750</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10">
+        <v>789904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10">
+        <v>413778</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId6"/>
+      </x15:timelineRefs>
     </ext>
   </extLst>
 </worksheet>
@@ -16580,55 +21215,105 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="6" customHeight="1"/>
-    <row r="2" spans="2:2" ht="21" customHeight="1">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:16" ht="6" customHeight="1"/>
+    <row r="2" spans="2:16" ht="21" customHeight="1">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="2:16" ht="21" customHeight="1">
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="21" customHeight="1">
-      <c r="B3" s="15">
+    <row r="4" spans="2:16" ht="21" customHeight="1">
+      <c r="B4" s="15">
         <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3)</f>
         <v>1203682</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="4.5" customHeight="1"/>
-    <row r="5" spans="2:2" ht="21" customHeight="1">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:16" ht="4.5" customHeight="1"/>
+    <row r="6" spans="2:16" ht="21" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="21.75" customHeight="1">
-      <c r="B6" s="18">
+    <row r="7" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B7" s="18">
         <f>GETPIVOTDATA("Valor Total",Dinamica!$A$3,"Status","Finalizada")</f>
         <v>840252</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="4.5" customHeight="1"/>
-    <row r="8" spans="2:2" ht="19.5" customHeight="1">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:16" ht="4.5" customHeight="1"/>
+    <row r="9" spans="2:16" ht="19.5" customHeight="1">
+      <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="21" customHeight="1">
-      <c r="B9" s="19">
-        <f>IFERROR(B6/B3,0)</f>
+    <row r="10" spans="2:16" ht="21" customHeight="1">
+      <c r="B10" s="19">
+        <f>IFERROR(B7/B4,0)</f>
         <v>0.69806809439702511</v>
       </c>
     </row>
+    <row r="11" spans="2:16">
+      <c r="D11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="J15" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M11:P11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16638,6 +21323,11 @@
         <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId4"/>
+      </x15:timelineRefs>
+    </ext>
   </extLst>
 </worksheet>
 </file>